--- a/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_SEMILLAS_P2_2025.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_SEMILLAS_P2_2025.xlsx
@@ -3106,12 +3106,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5404010010</t>
+          <t>5401010015</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>HIERBA PARA GATOS</t>
+          <t>DALIA DECORATIVA VARIADA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -3133,13 +3133,13 @@
         <v>19</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>33.74</v>
+        <v>34.01</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>15.47</v>
+        <v>15.72</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>79.17</v>
+        <v>63.33</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -3151,50 +3151,50 @@
         <v>18.6</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>38.33</v>
+        <v>88.33</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T31" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5401010015</t>
+          <t>5404010010</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>DALIA DECORATIVA VARIADA</t>
+          <t>HIERBA PARA GATOS</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -3216,13 +3216,13 @@
         <v>19</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>34.01</v>
+        <v>33.74</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>15.72</v>
+        <v>15.47</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>63.33</v>
+        <v>79.17</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -3234,38 +3234,38 @@
         <v>18.6</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>88.33</v>
+        <v>38.33</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T32" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T32" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4102,12 +4102,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5402090017</t>
+          <t>5402050013</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>MAIZ DULCE JUBILEE</t>
+          <t>TOMATE MARMANDE CUARANTENO</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -4129,10 +4129,10 @@
         <v>14</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>24.92</v>
+        <v>24.36</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>11.45</v>
+        <v>10.95</v>
       </c>
       <c r="K43" s="4" t="n">
         <v>70</v>
@@ -4150,35 +4150,35 @@
         <v>6</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>88.33</v>
+        <v>38.33</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T43" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T43" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4268,12 +4268,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>5402050013</t>
+          <t>5402090017</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE CUARANTENO</t>
+          <t>MAIZ DULCE JUBILEE</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -4295,10 +4295,10 @@
         <v>14</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>24.36</v>
+        <v>24.92</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>10.95</v>
+        <v>11.45</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>70</v>
@@ -4316,35 +4316,35 @@
         <v>6</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>38.33</v>
+        <v>88.33</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T45" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4434,12 +4434,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5103010002</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
+          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -4461,10 +4461,10 @@
         <v>4</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>23.96</v>
+        <v>21.96</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>10.78</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>-4</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>0</v>
@@ -4517,12 +4517,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5103010002</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE TRITON 14/16 12 UDS</t>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -4544,10 +4544,10 @@
         <v>4</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>21.96</v>
+        <v>23.96</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>10.78</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>0</v>
@@ -4565,7 +4565,7 @@
         <v>-4</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="Q48" s="4" t="n">
         <v>0</v>
@@ -4683,12 +4683,12 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5107190003</t>
+          <t>5103030000</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>LIS ASIATICO MEZCLADO 16/18 7 UDS</t>
+          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -4710,13 +4710,13 @@
         <v>3</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>22.47</v>
+        <v>20.1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>10.38</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0</v>
@@ -4728,50 +4728,50 @@
         <v>2.9</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T50" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5103030000</t>
+          <t>5107190003</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE MEZCLADO 10/12 40 UDS</t>
+          <t>LIS ASIATICO MEZCLADO 16/18 7 UDS</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -4793,13 +4793,13 @@
         <v>3</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>20.1</v>
+        <v>22.47</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>10.38</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -4811,38 +4811,38 @@
         <v>2.9</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T51" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T51" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5015,12 +5015,12 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5102070006</t>
+          <t>5102070000</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON ASHADO X1</t>
+          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
@@ -5042,13 +5042,13 @@
         <v>5</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>17.5</v>
+        <v>17.45</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>6.21</v>
+        <v>6.16</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -5060,10 +5060,10 @@
         <v>4.9</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="Q54" s="4" t="n">
         <v>0</v>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -5098,12 +5098,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5102070000</t>
+          <t>5102070006</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON VILLA BLANCA 1 UDS</t>
+          <t>DAHLIA POMPON ASHADO X1</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -5125,13 +5125,13 @@
         <v>5</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>17.45</v>
+        <v>17.5</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>6.16</v>
+        <v>6.21</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -5143,10 +5143,10 @@
         <v>4.9</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>0</v>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -5181,12 +5181,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>5404010002</t>
+          <t>5402080001</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA GIGANTE</t>
+          <t>JUDÍA EFEQUINCE</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
@@ -5208,10 +5208,10 @@
         <v>12</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>21.48</v>
+        <v>21.36</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>9.93</v>
+        <v>9.82</v>
       </c>
       <c r="K56" s="4" t="n">
         <v>60</v>
@@ -5229,47 +5229,47 @@
         <v>8</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>88.33</v>
+        <v>38.33</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T56" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T56" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>5402080001</t>
+          <t>5404010002</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>JUDÍA EFEQUINCE</t>
+          <t>ALBAHACA GIGANTE</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
@@ -5291,10 +5291,10 @@
         <v>12</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>21.36</v>
+        <v>21.48</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>9.82</v>
+        <v>9.93</v>
       </c>
       <c r="K57" s="4" t="n">
         <v>60</v>
@@ -5312,35 +5312,35 @@
         <v>8</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>38.33</v>
+        <v>88.33</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T57" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5430,12 +5430,12 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5107190006</t>
+          <t>5101010004</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>ARUM ETHIOPE 14/16 1 UDS</t>
+          <t>BEGONIA DOBLE PICOTE ARLEQUIN 5/6 X3</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
@@ -5457,13 +5457,13 @@
         <v>3</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>20.97</v>
+        <v>17.55</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>10.15</v>
+        <v>7.04</v>
       </c>
       <c r="K59" s="4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L59" s="4" t="n">
         <v>0</v>
@@ -5475,50 +5475,50 @@
         <v>2.9</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T59" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5101010004</t>
+          <t>5107190006</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE PICOTE ARLEQUIN 5/6 X3</t>
+          <t>ARUM ETHIOPE 14/16 1 UDS</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -5540,13 +5540,13 @@
         <v>3</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>17.55</v>
+        <v>20.97</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>7.04</v>
+        <v>10.15</v>
       </c>
       <c r="K60" s="4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L60" s="4" t="n">
         <v>0</v>
@@ -5558,38 +5558,38 @@
         <v>2.9</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T60" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T60" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
@@ -5679,12 +5679,12 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>5401020002</t>
+          <t>5402050012</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA DE LOS PRADOS VARIADA</t>
+          <t>TOMATE DE COLGAR</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
@@ -5706,13 +5706,13 @@
         <v>11</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>19.69</v>
+        <v>19.42</v>
       </c>
       <c r="J62" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="L62" s="4" t="n">
         <v>0</v>
@@ -5724,50 +5724,50 @@
         <v>10.8</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>0</v>
+        <v>88.33</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T62" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>5402050012</t>
+          <t>5401020002</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>TOMATE DE COLGAR</t>
+          <t>MARGARITA DE LOS PRADOS VARIADA</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
@@ -5789,13 +5789,13 @@
         <v>11</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>19.42</v>
+        <v>19.69</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0</v>
@@ -5807,38 +5807,38 @@
         <v>10.8</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>88.33</v>
+        <v>0</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T63" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T63" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -6011,12 +6011,12 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>5103010003</t>
+          <t>5101010005</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
+          <t>BEGONIA DOBLE BOTON ROSA 5/6 X3</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
@@ -6038,13 +6038,13 @@
         <v>3</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>16.47</v>
+        <v>16.17</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>6.72</v>
+        <v>6.45</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>0</v>
@@ -6056,50 +6056,50 @@
         <v>2.9</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T66" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T66" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>5101010005</t>
+          <t>5103010003</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE BOTON ROSA 5/6 X3</t>
+          <t>GLADIOLO FLOR GRANDE STRONG ORO 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
@@ -6121,13 +6121,13 @@
         <v>3</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>16.17</v>
+        <v>16.47</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>6.45</v>
+        <v>6.72</v>
       </c>
       <c r="K67" s="4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L67" s="4" t="n">
         <v>0</v>
@@ -6139,50 +6139,50 @@
         <v>2.9</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P67" s="4" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T67" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>5401010007</t>
+          <t>5401010027</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>CAPUCHINA ENANA VARIADA</t>
+          <t>SALVIA ENANA ROJA</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
@@ -6210,7 +6210,7 @@
         <v>8.27</v>
       </c>
       <c r="K68" s="4" t="n">
-        <v>43.48</v>
+        <v>50</v>
       </c>
       <c r="L68" s="4" t="n">
         <v>0</v>
@@ -6222,50 +6222,50 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R68" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T68" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T68" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W68" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>5401010027</t>
+          <t>5402020011</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>SALVIA ENANA ROJA</t>
+          <t>PEPINO MARKETER ECOLOGICO</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr"/>
@@ -6287,13 +6287,13 @@
         <v>10</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>17.9</v>
+        <v>17.36</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>8.27</v>
+        <v>7.78</v>
       </c>
       <c r="K69" s="4" t="n">
-        <v>50</v>
+        <v>83.33</v>
       </c>
       <c r="L69" s="4" t="n">
         <v>0</v>
@@ -6305,10 +6305,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P69" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q69" s="4" t="n">
         <v>89</v>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
@@ -6336,19 +6336,19 @@
       </c>
       <c r="W69" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>5401010013</t>
+          <t>5401010007</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>COSMOS DEL JAPON</t>
+          <t>CAPUCHINA ENANA VARIADA</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
@@ -6376,7 +6376,7 @@
         <v>8.27</v>
       </c>
       <c r="K70" s="4" t="n">
-        <v>50</v>
+        <v>43.48</v>
       </c>
       <c r="L70" s="4" t="n">
         <v>0</v>
@@ -6388,50 +6388,50 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O70" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="P70" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q70" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="R70" s="4" t="n">
+        <v>88.33</v>
+      </c>
+      <c r="S70" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="P70" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q70" s="4" t="n">
-        <v>89</v>
-      </c>
-      <c r="R70" s="4" t="n">
-        <v>148.33</v>
-      </c>
-      <c r="S70" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T70" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+      <c r="T70" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W70" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>5402020011</t>
+          <t>5401010013</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>PEPINO MARKETER ECOLOGICO</t>
+          <t>COSMOS DEL JAPON</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr"/>
@@ -6453,13 +6453,13 @@
         <v>10</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>17.36</v>
+        <v>17.9</v>
       </c>
       <c r="J71" s="4" t="n">
-        <v>7.78</v>
+        <v>8.27</v>
       </c>
       <c r="K71" s="4" t="n">
-        <v>83.33</v>
+        <v>50</v>
       </c>
       <c r="L71" s="4" t="n">
         <v>0</v>
@@ -6471,7 +6471,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>2</v>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 2 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="W71" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6921,12 +6921,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5102090003</t>
+          <t>5102090002</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA BALLE EVELYNE I X1</t>
+          <t>DAHLIA BALLE GENOVA I X1</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -6954,7 +6954,7 @@
         <v>4.82</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
@@ -6966,50 +6966,50 @@
         <v>2.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T3" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5102090002</t>
+          <t>5102090003</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA BALLE GENOVA I X1</t>
+          <t>DAHLIA BALLE EVELYNE I X1</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -7037,7 +7037,7 @@
         <v>4.82</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
@@ -7049,50 +7049,50 @@
         <v>2.9</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T4" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T4" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5402020014</t>
+          <t>5402050014</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>SANDIA SUGAR BABY</t>
+          <t>TOMATE MARMANDE ECOLOGICO</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -7114,13 +7114,13 @@
         <v>9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.84</v>
+        <v>15.57</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.2</v>
+        <v>6.95</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0</v>
@@ -7132,50 +7132,50 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T5" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T5" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5404010026</t>
+          <t>5404010015</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA ECO</t>
+          <t>MENTA VERDE</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -7197,10 +7197,10 @@
         <v>9</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>16.11</v>
+        <v>15.84</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.45</v>
+        <v>7.2</v>
       </c>
       <c r="K6" s="4" t="n">
         <v>45</v>
@@ -7218,47 +7218,47 @@
         <v>11</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T6" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T6" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5404010013</t>
+          <t>5402020014</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MANZANILLA</t>
+          <t>SANDIA SUGAR BABY</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -7286,7 +7286,7 @@
         <v>7.2</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -7298,10 +7298,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>89</v>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -7329,19 +7329,19 @@
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5402090013</t>
+          <t>5404010026</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ESPARRAGO MARY WASHINGTON</t>
+          <t>MANZANILLA ECO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -7369,7 +7369,7 @@
         <v>7.45</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -7381,10 +7381,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>89</v>
@@ -7402,7 +7402,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -7412,19 +7412,19 @@
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5404010015</t>
+          <t>5404010013</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MENTA VERDE</t>
+          <t>MANZANILLA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -7452,7 +7452,7 @@
         <v>7.2</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -7464,50 +7464,50 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T9" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T9" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402050014</t>
+          <t>5402090013</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE ECOLOGICO</t>
+          <t>ESPARRAGO MARY WASHINGTON</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -7529,10 +7529,10 @@
         <v>9</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>15.57</v>
+        <v>16.11</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>6.95</v>
+        <v>7.45</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>90</v>
@@ -7550,47 +7550,47 @@
         <v>1</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T10" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T10" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5401010024</t>
+          <t>5401010031</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>PENSAMIENTO GIGANTE SUIZO VARIADO</t>
+          <t>GERANIO ZONALE VARIADO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -7618,7 +7618,7 @@
         <v>7.54</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -7630,10 +7630,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>89</v>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7834,12 +7834,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5401010031</t>
+          <t>5401010024</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>GERANIO ZONALE VARIADO</t>
+          <t>PENSAMIENTO GIGANTE SUIZO VARIADO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -7867,7 +7867,7 @@
         <v>7.54</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -7879,10 +7879,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>89</v>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -7910,7 +7910,7 @@
       </c>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8249,12 +8249,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5402050024</t>
+          <t>5402050003</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA LARGA NEGRA ECO</t>
+          <t>PIMIENTO DULCE ITALIANO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -8276,10 +8276,10 @@
         <v>8</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>14.16</v>
+        <v>14.05</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>6.55</v>
+        <v>6.45</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>40</v>
@@ -8297,7 +8297,7 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>89</v>
@@ -8415,12 +8415,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5402050003</t>
+          <t>5404010006</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO</t>
+          <t>ANIS</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -8448,7 +8448,7 @@
         <v>6.45</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L21" s="4" t="n">
         <v>0</v>
@@ -8460,50 +8460,50 @@
         <v>7.8</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T21" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T21" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5404010006</t>
+          <t>5402050024</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ANIS</t>
+          <t>BERENJENA LARGA NEGRA ECO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -8525,13 +8525,13 @@
         <v>8</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>14.05</v>
+        <v>14.16</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>6.45</v>
+        <v>6.55</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0</v>
@@ -8543,38 +8543,38 @@
         <v>7.8</v>
       </c>
       <c r="O22" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="P22" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="P22" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="Q22" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T22" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T22" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8747,12 +8747,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5102020019</t>
+          <t>5102010003</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
+          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -8774,13 +8774,13 @@
         <v>3</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>10.5</v>
+        <v>9.49</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>3.73</v>
+        <v>2.81</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0</v>
@@ -8792,38 +8792,38 @@
         <v>2.9</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T25" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T25" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
@@ -8913,12 +8913,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5102010003</t>
+          <t>5102020019</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MARATHON MAN FDF I X1</t>
+          <t>DAHLIA DECORATIVA CONTRASTE I X1</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -8940,13 +8940,13 @@
         <v>3</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>9.49</v>
+        <v>10.5</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>2.81</v>
+        <v>3.73</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -8958,38 +8958,38 @@
         <v>2.9</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T27" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9079,12 +9079,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5404010014</t>
+          <t>5404010009</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>MELISSA OFFICINALIS</t>
+          <t>ENELDO</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -9106,13 +9106,13 @@
         <v>7</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>11.99</v>
+        <v>12.53</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>5.3</v>
+        <v>5.79</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -9124,50 +9124,50 @@
         <v>6.8</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T29" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T29" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO LEVE + OPTIMIZACIÓN: Aplicar descuento 20% para renovar inventario. Reducir compras 15% próxima temporada.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>5404010016</t>
+          <t>5404010014</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>OREGANO</t>
+          <t>MELISSA OFFICINALIS</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -9195,7 +9195,7 @@
         <v>5.3</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>31.82</v>
+        <v>35</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0</v>
@@ -9207,50 +9207,50 @@
         <v>6.8</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T30" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T30" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>5404010009</t>
+          <t>5404010016</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ENELDO</t>
+          <t>OREGANO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -9272,13 +9272,13 @@
         <v>7</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>12.53</v>
+        <v>11.99</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>5.79</v>
+        <v>5.3</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>70</v>
+        <v>31.82</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -9290,7 +9290,7 @@
         <v>6.8</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>1</v>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO LEVE + OPTIMIZACIÓN: Aplicar descuento 20% para renovar inventario. Reducir compras 15% próxima temporada.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9411,12 +9411,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>5404010023</t>
+          <t>5401010033</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>TOMILLO</t>
+          <t>STRELITZIA AVE DEL PARAISO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -9438,16 +9438,16 @@
         <v>7</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>12.26</v>
+        <v>12.53</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>5.62</v>
+        <v>5.86</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>2.3</v>
@@ -9456,38 +9456,38 @@
         <v>6.8</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T33" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T33" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9660,12 +9660,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5401010033</t>
+          <t>5404010023</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>STRELITZIA AVE DEL PARAISO</t>
+          <t>TOMILLO</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -9687,16 +9687,16 @@
         <v>7</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>12.53</v>
+        <v>12.26</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>5.86</v>
+        <v>5.62</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>2.3</v>
@@ -9705,50 +9705,50 @@
         <v>6.8</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T36" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T36" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5101010003</t>
+          <t>5107190018</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
+          <t>ARUM HOTSHOT 14/+ X1</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -9770,10 +9770,10 @@
         <v>2</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>10.98</v>
+        <v>11.98</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>4.48</v>
+        <v>5.39</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>40</v>
@@ -9791,7 +9791,7 @@
         <v>3</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>92</v>
@@ -9826,12 +9826,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5107190018</t>
+          <t>5101010003</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>ARUM HOTSHOT 14/+ X1</t>
+          <t>BEGONIA DOBLE ESCARLATA 5/6 X3</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -9853,10 +9853,10 @@
         <v>2</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>11.98</v>
+        <v>10.98</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>5.39</v>
+        <v>4.48</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>40</v>
@@ -9874,7 +9874,7 @@
         <v>3</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>92</v>
@@ -9909,12 +9909,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5107190017</t>
+          <t>5107190013</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ARUM PINK PERSUASION 14/+ X1</t>
+          <t>ARUM MAJESTIC RED 14/+ X1</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -9936,10 +9936,10 @@
         <v>2</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>11.98</v>
+        <v>13.98</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>5.39</v>
+        <v>7.21</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>40</v>
@@ -9957,7 +9957,7 @@
         <v>3</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>92</v>
@@ -9992,12 +9992,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5107190013</t>
+          <t>5107190017</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ARUM MAJESTIC RED 14/+ X1</t>
+          <t>ARUM PINK PERSUASION 14/+ X1</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -10019,10 +10019,10 @@
         <v>2</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>13.98</v>
+        <v>11.98</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>7.21</v>
+        <v>5.39</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>40</v>
@@ -10040,7 +10040,7 @@
         <v>3</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>92</v>
@@ -10241,12 +10241,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5107130001</t>
+          <t>5102090001</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
+          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -10268,13 +10268,13 @@
         <v>2</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>10.78</v>
+        <v>8.9</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>4.92</v>
+        <v>3.21</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>0</v>
@@ -10286,10 +10286,10 @@
         <v>2</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>92</v>
@@ -10324,12 +10324,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5102090001</t>
+          <t>5107130001</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA ARBUSTO JAIPUR I X1</t>
+          <t>LIS ASIATICA NASHVILLE 16/18 X3</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -10351,13 +10351,13 @@
         <v>2</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>8.9</v>
+        <v>10.78</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>3.21</v>
+        <v>4.92</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>2</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>92</v>
@@ -10490,12 +10490,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5402090023</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL 2011</t>
+          <t>SANDÍA CRIMSON SWEET</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -10517,13 +10517,13 @@
         <v>6</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -10535,38 +10535,38 @@
         <v>5.9</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>28</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T46" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10739,12 +10739,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5402090023</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>SANDÍA CRIMSON SWEET</t>
+          <t>CALABAZA CABELLO DE ANGEL 2011</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -10766,13 +10766,13 @@
         <v>6</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>4.96</v>
+        <v>4.72</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
@@ -10784,50 +10784,50 @@
         <v>5.9</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>14</v>
+        <v>-6</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>28</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T49" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T49" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5402030005</t>
+          <t>5404010001</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO ECOL</t>
+          <t>ALBAHACA FINA</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -10849,13 +10849,13 @@
         <v>6</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>10.74</v>
+        <v>10.47</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>5.02</v>
+        <v>4.78</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0</v>
@@ -10867,50 +10867,50 @@
         <v>5.9</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T50" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T50" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>5402020007</t>
+          <t>5402020013</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>MELON ROCHET</t>
+          <t>SANDIA CRIMSON SWEET ECOLOG</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -10932,10 +10932,10 @@
         <v>6</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>10.74</v>
+        <v>10.2</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>5.02</v>
+        <v>4.53</v>
       </c>
       <c r="K51" s="4" t="n">
         <v>60</v>
@@ -10953,7 +10953,7 @@
         <v>4</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="Q51" s="4" t="n">
         <v>53</v>
@@ -10988,12 +10988,12 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5402020013</t>
+          <t>5401010003</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>SANDIA CRIMSON SWEET ECOLOG</t>
+          <t>BELLA DE DIA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -11015,10 +11015,10 @@
         <v>6</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>10.2</v>
+        <v>10.74</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>4.53</v>
+        <v>5.02</v>
       </c>
       <c r="K52" s="4" t="n">
         <v>60</v>
@@ -11036,7 +11036,7 @@
         <v>4</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Q52" s="4" t="n">
         <v>53</v>
@@ -11071,12 +11071,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>5404010001</t>
+          <t>5402030005</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>ALBAHACA FINA</t>
+          <t>RABANITO REDONDO ROJO ECOL</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -11098,13 +11098,13 @@
         <v>6</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>10.47</v>
+        <v>10.74</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>4.78</v>
+        <v>5.02</v>
       </c>
       <c r="K53" s="4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L53" s="4" t="n">
         <v>0</v>
@@ -11116,50 +11116,50 @@
         <v>5.9</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T53" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T53" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>5402020009</t>
+          <t>5402020007</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>MELON PIÑONET PIEL DE SAPO</t>
+          <t>MELON ROCHET</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
@@ -11202,7 +11202,7 @@
         <v>4</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q54" s="4" t="n">
         <v>53</v>
@@ -11237,12 +11237,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>5401010003</t>
+          <t>5402020009</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>BELLA DE DIA</t>
+          <t>MELON PIÑONET PIEL DE SAPO</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -11569,12 +11569,12 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>5404010012</t>
+          <t>5401010016</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>LAVANDA OFFICINALIS</t>
+          <t>ESTATICE VARIADA</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
@@ -11596,16 +11596,16 @@
         <v>5</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>8.68</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>3.89</v>
+        <v>4.14</v>
       </c>
       <c r="K59" s="4" t="n">
-        <v>31.25</v>
+        <v>50</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>1.6</v>
@@ -11614,50 +11614,50 @@
         <v>4.9</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>153.33</v>
+        <v>38.33</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T59" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T59" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 92 días.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>5401010016</t>
+          <t>5401030005</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>ESTATICE VARIADA</t>
+          <t>CLAVEL GIGANTE VARIADO</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -11685,10 +11685,10 @@
         <v>4.14</v>
       </c>
       <c r="K60" s="4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>1.6</v>
@@ -11697,50 +11697,50 @@
         <v>4.9</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>38.33</v>
+        <v>148.33</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T60" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 92 días.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>5401030005</t>
+          <t>5401030003</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>CLAVEL GIGANTE VARIADO</t>
+          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
@@ -11768,10 +11768,10 @@
         <v>4.14</v>
       </c>
       <c r="K61" s="4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>1.6</v>
@@ -11780,50 +11780,50 @@
         <v>4.9</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P61" s="4" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>148.33</v>
+        <v>38.33</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T61" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T61" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 92 días.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>5401030003</t>
+          <t>5404010012</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>CINERARIA ENANA HIBRIDA VARIADA</t>
+          <t>LAVANDA OFFICINALIS</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
@@ -11845,16 +11845,16 @@
         <v>5</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>8.68</v>
       </c>
       <c r="J62" s="4" t="n">
-        <v>4.14</v>
+        <v>3.89</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>50</v>
+        <v>31.25</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>1.6</v>
@@ -11863,38 +11863,38 @@
         <v>4.9</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>38.33</v>
+        <v>153.33</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T62" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 92 días.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12067,12 +12067,12 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>5401010010</t>
+          <t>5402090008</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>COLEUS HIBRIDO ARCO IRIS</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>4.19</v>
       </c>
       <c r="K65" s="4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L65" s="4" t="n">
         <v>0</v>
@@ -12112,50 +12112,50 @@
         <v>4.9</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P65" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q65" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>148.33</v>
+        <v>88.33</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T65" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T65" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W65" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>5402090008</t>
+          <t>5401010010</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION</t>
+          <t>COLEUS HIBRIDO ARCO IRIS</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
@@ -12183,7 +12183,7 @@
         <v>4.19</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>0</v>
@@ -12195,38 +12195,38 @@
         <v>4.9</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T66" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T66" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12894,12 +12894,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5402020008</t>
+          <t>5402050006</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MELON AMARILLO CANARIO</t>
+          <t>PIMIENTO HABANERO ROJO 2019</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -12921,13 +12921,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -12939,16 +12939,16 @@
         <v>3.9</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>38.33</v>
+        <v>0</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>0</v>
@@ -12960,29 +12960,29 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 138 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5402020016</t>
+          <t>5402020008</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA BUTTERNUT ECO</t>
+          <t>MELON AMARILLO CANARIO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -13010,7 +13010,7 @@
         <v>3.31</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -13022,16 +13022,16 @@
         <v>3.9</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0</v>
+        <v>38.33</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>0</v>
@@ -13043,29 +13043,29 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 138 días.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5402050006</t>
+          <t>5402020016</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO HABANERO ROJO 2019</t>
+          <t>CALABAZA BUTTERNUT ECO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -13087,10 +13087,10 @@
         <v>4</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.06</v>
+        <v>3.31</v>
       </c>
       <c r="K9" s="4" t="n">
         <v>0</v>
@@ -13108,7 +13108,7 @@
         <v>-4</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>0</v>
@@ -13226,12 +13226,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5402080006</t>
+          <t>5402040007</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>JUDIA HELDA ECO</t>
+          <t>LECHUGA SUCRINE</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -13253,13 +13253,13 @@
         <v>4</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>6.62</v>
+        <v>7.54</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>2.86</v>
+        <v>3.69</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -13271,50 +13271,50 @@
         <v>3.9</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>16</v>
+        <v>-4</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T11" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T11" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5401010017</t>
+          <t>5402090028</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
+          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -13336,13 +13336,13 @@
         <v>4</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>7.16</v>
+        <v>6.89</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -13354,10 +13354,10 @@
         <v>3.9</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>89</v>
@@ -13475,12 +13475,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5402090028</t>
+          <t>5401010017</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA VALENCIANA TARDIA EXPORTACION ECO</t>
+          <t>FICOIDE TAPIZ MAGICO VARIADO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -13502,13 +13502,13 @@
         <v>4</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>6.89</v>
+        <v>7.16</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -13520,10 +13520,10 @@
         <v>3.9</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>89</v>
@@ -13641,12 +13641,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5402040007</t>
+          <t>5402080006</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA SUCRINE</t>
+          <t>JUDIA HELDA ECO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -13668,13 +13668,13 @@
         <v>4</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>7.54</v>
+        <v>6.62</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>3.69</v>
+        <v>2.86</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -13686,38 +13686,38 @@
         <v>3.9</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="P16" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <v>89</v>
+      </c>
+      <c r="R16" s="4" t="n">
+        <v>148.33</v>
+      </c>
+      <c r="S16" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="Q16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+      <c r="T16" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -13890,12 +13890,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5103010004</t>
+          <t>5107190005</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 12 UDS</t>
+          <t>ARUM FORET NEGRO 14+1 UDS</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -13917,13 +13917,13 @@
         <v>1</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>5.99</v>
+        <v>6.99</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
@@ -13935,50 +13935,50 @@
         <v>1</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T19" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>5107190005</t>
+          <t>5103010004</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ARUM FORET NEGRO 14+1 UDS</t>
+          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 12 UDS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -14000,13 +14000,13 @@
         <v>1</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>6.99</v>
+        <v>5.99</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
         <v>0</v>
@@ -14018,38 +14018,38 @@
         <v>1</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>153.33</v>
+        <v>0</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T20" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T20" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -14305,12 +14305,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5102020015</t>
+          <t>5102010004</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
+          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -14341,7 +14341,7 @@
         <v>20</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0.3</v>
@@ -14353,7 +14353,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>92</v>
@@ -14388,12 +14388,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5102010004</t>
+          <t>5102020015</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS GALAXIA FDF I X1</t>
+          <t>DAHLIA DECORATIVA BEL AMOUR FDF I X1</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -14424,7 +14424,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0.3</v>
@@ -14436,7 +14436,7 @@
         <v>4</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>92</v>
@@ -14471,12 +14471,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5402050011</t>
+          <t>5402050004</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CORAZÓN DE BUEY 2017</t>
+          <t>PIMIENTO DULCE ITALIANO ECOL</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -14498,16 +14498,16 @@
         <v>3</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>4.83</v>
+        <v>5.37</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>1.99</v>
+        <v>2.48</v>
       </c>
       <c r="K26" s="4" t="n">
         <v>30</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>1</v>
@@ -14519,47 +14519,47 @@
         <v>7</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>38.33</v>
+        <v>148.33</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T26" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 214 días.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5402050004</t>
+          <t>5402050011</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO ECOL</t>
+          <t>TOMATE CORAZÓN DE BUEY 2017</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -14581,16 +14581,16 @@
         <v>3</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>5.37</v>
+        <v>4.83</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>2.48</v>
+        <v>1.99</v>
       </c>
       <c r="K27" s="4" t="n">
         <v>30</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>1</v>
@@ -14602,35 +14602,35 @@
         <v>7</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>148.33</v>
+        <v>38.33</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T27" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T27" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 214 días.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -14720,12 +14720,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>5402010001</t>
+          <t>5402090010</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>COL REPOLLO BRUNSWICK TENTA</t>
+          <t>COLIFLOR ROMANESCO NATALINO</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -14747,13 +14747,13 @@
         <v>3</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>5.75</v>
+        <v>5.37</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>2.86</v>
+        <v>2.51</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>30</v>
+        <v>37.5</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
@@ -14765,38 +14765,38 @@
         <v>2.9</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>148.33</v>
+        <v>153.33</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T29" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T29" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -14969,12 +14969,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>5402090010</t>
+          <t>5402010001</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO NATALINO</t>
+          <t>COL REPOLLO BRUNSWICK TENTA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -14996,13 +14996,13 @@
         <v>3</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>5.37</v>
+        <v>5.75</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>2.51</v>
+        <v>2.86</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -15014,38 +15014,38 @@
         <v>2.9</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T32" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T32" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.77€. Prioridad máxima.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -15301,16 +15301,24 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>5402090020</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>PUERRO VDE CARENTAN ECOLOG</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>60G</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
           <t>54</t>
@@ -15328,16 +15336,16 @@
         <v>2</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>1.65</v>
+        <v>1.41</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0.7</v>
@@ -15346,50 +15354,50 @@
         <v>2</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T36" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>5402050015</t>
+          <t>5404010007</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE RAF</t>
+          <t>CEBOLLINO ANUAL 2011</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -15411,16 +15419,16 @@
         <v>2</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>3.58</v>
+        <v>3.04</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>1.65</v>
+        <v>1.16</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0.7</v>
@@ -15429,50 +15437,50 @@
         <v>2</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T37" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T37" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>5402050008</t>
+          <t>5402090020</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PADRON</t>
+          <t>PUERRO VDE CARENTAN ECOLOG</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -15500,7 +15508,7 @@
         <v>1.65</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -15512,50 +15520,50 @@
         <v>2</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T38" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T38" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>5404010007</t>
+          <t>5402050008</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLINO ANUAL 2011</t>
+          <t>PIMIENTO PADRON</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -15577,13 +15585,13 @@
         <v>2</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>3.04</v>
+        <v>3.58</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1.16</v>
+        <v>1.65</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -15595,62 +15603,54 @@
         <v>2</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="P39" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q39" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="Q39" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="R39" s="4" t="n">
-        <v>0</v>
+        <v>148.33</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T39" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5402050015</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>60G</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TOMATE MARMANDE RAF</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr"/>
+      <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr">
         <is>
           <t>54</t>
@@ -15668,16 +15668,16 @@
         <v>2</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0.7</v>
@@ -15686,50 +15686,50 @@
         <v>2</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T40" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T40" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.42€. Prioridad máxima.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>5402050001</t>
+          <t>5402090015</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA REDONDA NEGRA LISA</t>
+          <t>ESPINACA VIKING DE VERANO</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -15772,35 +15772,35 @@
         <v>8</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>88.33</v>
+        <v>148.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T41" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T41" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -15890,12 +15890,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>5402090015</t>
+          <t>5402030003</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>ESPINACA VIKING DE VERANO</t>
+          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -15938,7 +15938,7 @@
         <v>8</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>89</v>
@@ -15973,12 +15973,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>5402030003</t>
+          <t>5404010022</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>RABANITO MEDIO LARGO ROJO PUNTA BLANCA-CUMBRE</t>
+          <t>STEVIA 2015</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -16000,13 +16000,13 @@
         <v>2</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>0</v>
@@ -16018,38 +16018,38 @@
         <v>2</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T44" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T44" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -16139,12 +16139,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>5404010022</t>
+          <t>5402050001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>STEVIA 2015</t>
+          <t>BERENJENA REDONDA NEGRA LISA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -16166,13 +16166,13 @@
         <v>2</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -16184,50 +16184,50 @@
         <v>2</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>0</v>
+        <v>88.33</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T46" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>5401010026</t>
+          <t>5402020006</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>PETUNIA PENDULA VARIADA 2011</t>
+          <t>CALABAZA CABELLO DE ANGEL</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -16255,7 +16255,7 @@
         <v>0.83</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0</v>
@@ -16267,16 +16267,16 @@
         <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>0</v>
+        <v>38.33</v>
       </c>
       <c r="S47" s="5" t="n">
         <v>0</v>
@@ -16288,29 +16288,29 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 828 días.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>5402020006</t>
+          <t>5401010026</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA CABELLO DE ANGEL</t>
+          <t>PETUNIA PENDULA VARIADA 2011</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -16338,7 +16338,7 @@
         <v>0.83</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>0</v>
@@ -16350,16 +16350,16 @@
         <v>1</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>38.33</v>
+        <v>0</v>
       </c>
       <c r="S48" s="5" t="n">
         <v>0</v>
@@ -16371,29 +16371,29 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 828 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>5401010006</t>
+          <t>5402090003</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA DOBLE, VARIADA 2011</t>
+          <t>ALCACHOFA TALPIOT 2011</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -16421,7 +16421,7 @@
         <v>0.84</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
@@ -16433,50 +16433,50 @@
         <v>1</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>0</v>
+        <v>153.33</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T49" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>5402090003</t>
+          <t>5402090012</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ALCACHOFA TALPIOT 2011</t>
+          <t>ESCAROLA RIZADA CABELLO DE ANGEL</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -16519,35 +16519,35 @@
         <v>9</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T50" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T50" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -16637,12 +16637,12 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>5402090012</t>
+          <t>5401010006</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ESCAROLA RIZADA CABELLO DE ANGEL</t>
+          <t>CAMPANULA DOBLE, VARIADA 2011</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -16670,7 +16670,7 @@
         <v>0.84</v>
       </c>
       <c r="K52" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
         <v>0</v>
@@ -16682,38 +16682,38 @@
         <v>1</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>148.33</v>
+        <v>0</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T52" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T52" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -17049,24 +17049,32 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>5401020001</t>
+          <t>5305010001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>MARGARITA DE LOS PRADOS MONSTRUOSA VARIADA</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA SOMBRA</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -17085,7 +17093,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -17094,7 +17102,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
@@ -17132,12 +17140,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5102010005</t>
+          <t>5107190009</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
+          <t>LIS ORIENTAL STARGAZER 16/18 X3</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -17198,7 +17206,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.72€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -17215,12 +17223,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5102020011</t>
+          <t>5107190010</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
+          <t>LIS ORIENTAL BERGAME 16/18 X3</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -17281,7 +17289,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -17298,32 +17306,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>5301010001</t>
+          <t>5107020001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA RESISTENTE</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ANEMONA SIMPLE DE CAEN MEZCLADO 7/8 X15</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -17342,7 +17342,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -17351,7 +17351,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
@@ -17372,7 +17372,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -17389,12 +17389,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5102070004</t>
+          <t>5107100002</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON MEZCLADO 1/2 X4</t>
+          <t>FREESIA SIMPLE MEZCLADO 5/+ X15</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -17425,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -17434,7 +17434,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
@@ -17455,7 +17455,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -17472,12 +17472,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>5102080000</t>
+          <t>5102070000</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA GIGANTE TARTARUS I X1</t>
+          <t>DAHLIA POMPON VILLA BLANCA FDF I X1</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -17555,24 +17555,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>5107040000</t>
+          <t>5404010024</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>CANNA ENANA FV ZUMBA</t>
+          <t>PEREJIL COMUN ECOLOGICO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -17591,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -17600,19 +17600,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>153.33</v>
+        <v>88.33</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T8" s="8" t="inlineStr">
         <is>
@@ -17621,12 +17621,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -17638,24 +17638,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>5401010032</t>
+          <t>5103010004</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>GIPSOFILA ELEGANS BLANCA</t>
+          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 X12</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -17674,7 +17674,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -17683,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
@@ -17704,7 +17704,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -17721,32 +17721,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>5402070002</t>
+          <t>5107190003</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>HABA HISTAL</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>LIS ASIATICO MEZCLADO 16/18 X7</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr"/>
+      <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -17765,7 +17757,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -17774,7 +17766,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
@@ -17795,7 +17787,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.49€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -17812,24 +17804,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>5402020018</t>
+          <t>5103010005</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CALABAZA MAMMOTH GOLD</t>
+          <t>GLADIOLO FLOR GRANDE NEGRO SORPRESA 14/16 X12</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -17848,7 +17840,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -17857,19 +17849,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>148.33</v>
+        <v>153.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -17878,12 +17870,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -17895,24 +17887,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>5103010006</t>
+          <t>5401020001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 X12</t>
+          <t>MARGARITA DE LOS PRADOS MONSTRUOSA VARIADA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -17931,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -17940,19 +17932,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>153.33</v>
+        <v>38.33</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T12" s="8" t="inlineStr">
         <is>
@@ -17961,12 +17953,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -17978,24 +17970,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>5402090014</t>
+          <t>5107040000</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ESPINACA GIGANTE DE INVIERNO</t>
+          <t>CANNA ENANA FV ZUMBA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -18014,7 +18006,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -18023,19 +18015,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>148.33</v>
+        <v>153.33</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T13" s="8" t="inlineStr">
         <is>
@@ -18044,12 +18036,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -18061,12 +18053,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>5103010004</t>
+          <t>5102070004</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE CIMAROSA 14/16 X12</t>
+          <t>DAHLIA POMPON MEZCLADO 1/2 X4</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -18097,7 +18089,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -18106,7 +18098,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
@@ -18127,7 +18119,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -18144,12 +18136,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>5107020001</t>
+          <t>5103010006</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ANEMONA SIMPLE DE CAEN MEZCLADO 7/8 X15</t>
+          <t>GLADIOLO FLOR GRANDE AMSTERDAM 14/16 X12</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -18227,24 +18219,32 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>5103010002</t>
+          <t>5402070002</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE TRITON 14/16 X12</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr"/>
+          <t>HABA HISTAL</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -18263,7 +18263,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -18272,7 +18272,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
@@ -18293,7 +18293,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.49€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -18310,12 +18310,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5107190011</t>
+          <t>5103010002</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ARUM MEZCLADO 14/16 X3</t>
+          <t>GLADIOLO FLOR GRANDE TRITON 14/16 X12</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -18346,7 +18346,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -18355,7 +18355,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
@@ -18376,7 +18376,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 46.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -18393,24 +18393,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>5103010005</t>
+          <t>5401010032</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>GLADIOLO FLOR GRANDE NEGRO SORPRESA 14/16 X12</t>
+          <t>GIPSOFILA ELEGANS BLANCA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -18429,7 +18429,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -18438,7 +18438,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
@@ -18459,7 +18459,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -18476,24 +18476,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>5107190003</t>
+          <t>5401010029</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>LIS ASIATICO MEZCLADO 16/18 X7</t>
+          <t>TAGETE ENANO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -18512,7 +18512,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -18521,19 +18521,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>153.33</v>
+        <v>38.33</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
@@ -18542,12 +18542,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/05/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -18642,12 +18642,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>5107190009</t>
+          <t>5102080000</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL STARGAZER 16/18 X3</t>
+          <t>DAHLIA GIGANTE TARTARUS I X1</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.72€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -18725,24 +18725,32 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>5107190010</t>
+          <t>5301010001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>LIS ORIENTAL BERGAME 16/18 X3</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="3" t="inlineStr"/>
+          <t>CESPED FORMULA RESISTENTE</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>5KG</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>CESPED</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -18761,7 +18769,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -18770,7 +18778,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
@@ -18791,7 +18799,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -18808,32 +18816,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>5305010001</t>
+          <t>5107190011</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CESPED FORMULA SOMBRA</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>5KG</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ARUM MEZCLADO 14/16 X3</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+      <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>CESPED</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -18852,7 +18852,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -18861,19 +18861,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>38.33</v>
+        <v>153.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
@@ -18882,12 +18882,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 46.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -18899,12 +18899,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5101010002</t>
+          <t>5102010005</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
+          <t>DAHLIA CACTUS MEZCLADO I/II X4</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -18944,7 +18944,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
@@ -18965,7 +18965,7 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -18982,12 +18982,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>5401010029</t>
+          <t>5402020018</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>TAGETE ENANO</t>
+          <t>CALABAZA MAMMOTH GOLD</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -19033,13 +19033,13 @@
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>38.33</v>
+        <v>148.33</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
@@ -19048,12 +19048,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -19065,24 +19065,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>5404010024</t>
+          <t>5101010002</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>PEREJIL COMUN ECOLOGICO</t>
+          <t>BEGONIA DOBLE ROSA 5/6 X3</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>SEMILLAS</t>
+          <t>BULBOS DE FLOR</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -19101,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -19110,19 +19110,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>88.33</v>
+        <v>153.33</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T26" s="8" t="inlineStr">
         <is>
@@ -19131,12 +19131,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.77€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -19148,24 +19148,24 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>5107100002</t>
+          <t>5402090014</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>FREESIA SIMPLE MEZCLADO 5/+ X15</t>
+          <t>ESPINACA GIGANTE DE INVIERNO</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>BULBOS DE FLOR</t>
+          <t>SEMILLAS</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -19184,7 +19184,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -19193,19 +19193,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>153.33</v>
+        <v>148.33</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T27" s="8" t="inlineStr">
         <is>
@@ -19214,12 +19214,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -19231,12 +19231,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>5102070000</t>
+          <t>5102020011</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>DAHLIA POMPON VILLA BLANCA FDF I X1</t>
+          <t>DAHLIA DECORATIVA ENANA SOPRANO FDF I X1</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
